--- a/aimara.xlsx
+++ b/aimara.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documentos\GitHub\Conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">singular </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>plural</t>
   </si>
@@ -518,7 +515,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,51 +525,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +582,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,51 +592,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +649,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,51 +659,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +716,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,51 +726,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +783,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -796,51 +793,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +850,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -863,51 +860,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -930,51 +927,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/aimara.xlsx
+++ b/aimara.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>plural</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>ri-ya-tana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primera exclusiva </t>
   </si>
   <si>
     <t>ri-:-tana</t>
@@ -917,7 +914,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,10 +943,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
